--- a/IntentionLearning/memo/presentation/卒論発表会.xlsx
+++ b/IntentionLearning/memo/presentation/卒論発表会.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\komota\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>スライド</t>
     <phoneticPr fontId="1"/>
@@ -41,17 +36,18 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>コップを運ぶ１</t>
-    <rPh sb="4" eb="5">
-      <t>ハコ</t>
+    <t>研究背景</t>
+    <rPh sb="0" eb="2">
+      <t>ケンキュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハイケイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>コップを運ぶ２</t>
-    <rPh sb="4" eb="5">
-      <t>ハコ</t>
-    </rPh>
+    <t xml:space="preserve">それでは，「一つ以上の参照点を考慮した物体移動動作の学習と再現に関する研究」というタイトルで，わたくし情報工学科4年の菰田が発表いたします．
+</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -65,6 +61,22 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>例：丸を四角に近づける</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>マル</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シカク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>チカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>提案手法</t>
     <rPh sb="0" eb="2">
       <t>テイアン</t>
@@ -75,372 +87,100 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>実験１</t>
-    <rPh sb="0" eb="2">
-      <t>ジッケン</t>
+    <t>例：等間隔に丸，四角，三角と並べる</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>トウカンカク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>マル</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シカク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サンカク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ナラ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>実験2</t>
+    <t>実験</t>
     <rPh sb="0" eb="2">
       <t>ジッケン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>実験3</t>
+    <t>動作再現実験</t>
     <rPh sb="0" eb="2">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サイゲン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
       <t>ジッケン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>結論</t>
+    <t>結果</t>
     <rPh sb="0" eb="2">
-      <t>ケツロン</t>
+      <t>ケッカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>将来研究</t>
+    <t>動作識別実験</t>
     <rPh sb="0" eb="2">
-      <t>ショウライ</t>
+      <t>ドウサ</t>
     </rPh>
     <rPh sb="2" eb="4">
-      <t>ケンキュウ</t>
+      <t>シキベツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジッケン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">例えば，飲食店で給仕するロボットに「お冷を運ぶ」という動作を学習させることを考えます．
-ロボットに動作を学習させるために，一度教示動作として客の前にお冷を移動する動作を見せたとします．その後今度は「お冷を運んでくれ」と命令されたとき
-，ロボットは教示された動作をもとにお冷を移動する動作を再現しますが，例えば客の位置がこのように学習時と違う位置になっている場合でも，ロボットは学
-習時に教示された通りの目標位置にお冷を運んでしまいます．これはロボットが見せられた教示動作の目標位置が「客の前である」ことが重要であるということ
-に気付いていないために起こる問題です．
-</t>
+    <t>結果</t>
+    <rPh sb="0" eb="2">
+      <t>ケッカ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>そこでこのように，客の位置が異なる二つの状態でロボットに動作を教示しますこの時コップの目標位置は二つの教示動作で異なっていますが，両方とも「客の
-前に運んでいる」ということにロボットが気付ければ，次にロボットが「お冷を運んで」と命令された際に，「客の前に運ぶ」ということを念頭に入れた目標位
-置．．．
-このように，教示動作からその動作において「着目すべき点」と「その点に対する変位」を学習することで，物体移動動作の目標位置を教示動作から推定し，動作意図に沿った目標位置を再現することを目標に研究を行いました</t>
-    <rPh sb="160" eb="162">
-      <t>キョウジ</t>
-    </rPh>
-    <rPh sb="162" eb="164">
-      <t>ドウサ</t>
-    </rPh>
-    <rPh sb="168" eb="170">
-      <t>ドウサ</t>
-    </rPh>
-    <rPh sb="175" eb="177">
-      <t>チャクモク</t>
-    </rPh>
-    <rPh sb="180" eb="181">
-      <t>テン</t>
-    </rPh>
-    <rPh sb="186" eb="187">
-      <t>テン</t>
-    </rPh>
-    <rPh sb="188" eb="189">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="191" eb="193">
-      <t>ヘンイ</t>
-    </rPh>
-    <rPh sb="195" eb="197">
-      <t>ガクシュウ</t>
-    </rPh>
-    <rPh sb="203" eb="205">
-      <t>ブッタイ</t>
-    </rPh>
-    <rPh sb="205" eb="207">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="207" eb="209">
-      <t>ドウサ</t>
-    </rPh>
-    <rPh sb="210" eb="212">
-      <t>モクヒョウ</t>
-    </rPh>
-    <rPh sb="212" eb="214">
-      <t>イチ</t>
-    </rPh>
-    <rPh sb="215" eb="217">
-      <t>キョウジ</t>
-    </rPh>
-    <rPh sb="217" eb="219">
-      <t>ドウサ</t>
-    </rPh>
-    <rPh sb="221" eb="223">
-      <t>スイテイ</t>
-    </rPh>
-    <rPh sb="225" eb="227">
-      <t>ドウサ</t>
-    </rPh>
-    <rPh sb="227" eb="229">
-      <t>イト</t>
-    </rPh>
-    <rPh sb="230" eb="231">
-      <t>ソ</t>
-    </rPh>
-    <rPh sb="233" eb="235">
-      <t>モクヒョウ</t>
-    </rPh>
-    <rPh sb="235" eb="237">
-      <t>イチ</t>
-    </rPh>
-    <rPh sb="238" eb="240">
-      <t>サイゲン</t>
-    </rPh>
-    <rPh sb="245" eb="247">
-      <t>モクヒョウ</t>
-    </rPh>
-    <rPh sb="248" eb="250">
-      <t>ケンキュウ</t>
-    </rPh>
-    <rPh sb="251" eb="252">
-      <t>オコナ</t>
+    <t>今後の課題</t>
+    <rPh sb="0" eb="2">
+      <t>コンゴ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カダイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>関連研究として，環境中の物体の位置を参照点，その参照点を原点とした座標系を変位として学習する様々な手法が提案されてます．
-これらは，与えられた参照点と変位の候補のうち，教示動作を説明するのに最適な組み合わせをどのように把握するかを．．．</t>
+    <t>参考文献</t>
     <rPh sb="0" eb="2">
-      <t>カンレン</t>
+      <t>サンコウ</t>
     </rPh>
     <rPh sb="2" eb="4">
-      <t>ケンキュウ</t>
-    </rPh>
-    <rPh sb="8" eb="11">
-      <t>カンキョウチュウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ブッタイ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>イチ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>サンショウ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>テン</t>
-    </rPh>
-    <rPh sb="24" eb="27">
-      <t>サンショウテン</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ゲンテン</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ザヒョウ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>ケイ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ヘンイ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>ガクシュウ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>サマザマ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>シュホウ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>テイアン</t>
-    </rPh>
-    <rPh sb="66" eb="67">
-      <t>アタ</t>
-    </rPh>
-    <rPh sb="71" eb="74">
-      <t>サンショウテン</t>
-    </rPh>
-    <rPh sb="75" eb="77">
-      <t>ヘンイ</t>
-    </rPh>
-    <rPh sb="78" eb="80">
-      <t>コウホ</t>
-    </rPh>
-    <rPh sb="84" eb="86">
-      <t>キョウジ</t>
-    </rPh>
-    <rPh sb="86" eb="88">
-      <t>ドウサ</t>
-    </rPh>
-    <rPh sb="89" eb="91">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="95" eb="97">
-      <t>サイテキ</t>
-    </rPh>
-    <rPh sb="98" eb="99">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="100" eb="101">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="109" eb="111">
-      <t>ハアク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>そこで本研究では，二つ以上の物体間の重心位置も参照点の候補として採用することで，このような動作も学習可能な手法を提案しました．
-学習時には与えられたN回の教示動作から，以下の式を最大とする参照点lと座標系kの組み合わせを探索することで，推定を行っています</t>
-    <rPh sb="3" eb="6">
-      <t>ホンケンキュウ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>フタ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ブッタイ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ジュウシン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>イチ</t>
-    </rPh>
-    <rPh sb="23" eb="26">
-      <t>サンショウテン</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>コウホ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>サイヨウ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>ドウサ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>ガクシュウ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>シュホウ</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>テイアン</t>
-    </rPh>
-    <rPh sb="64" eb="66">
-      <t>ガクシュウ</t>
-    </rPh>
-    <rPh sb="66" eb="67">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="69" eb="70">
-      <t>アタ</t>
-    </rPh>
-    <rPh sb="75" eb="76">
-      <t>カイ</t>
-    </rPh>
-    <rPh sb="77" eb="79">
-      <t>キョウジ</t>
-    </rPh>
-    <rPh sb="79" eb="81">
-      <t>ドウサ</t>
-    </rPh>
-    <rPh sb="84" eb="86">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="87" eb="88">
-      <t>シキ</t>
-    </rPh>
-    <rPh sb="89" eb="91">
-      <t>サイダイ</t>
-    </rPh>
-    <rPh sb="94" eb="97">
-      <t>サンショウテン</t>
-    </rPh>
-    <rPh sb="99" eb="101">
-      <t>ザヒョウ</t>
-    </rPh>
-    <rPh sb="101" eb="102">
-      <t>ケイ</t>
-    </rPh>
-    <rPh sb="104" eb="105">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="106" eb="107">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="110" eb="112">
-      <t>タンサク</t>
-    </rPh>
-    <rPh sb="118" eb="120">
-      <t>スイテイ</t>
-    </rPh>
-    <rPh sb="121" eb="122">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>提案手法の有効性を検証する実験として，学習させた動作の再現精度を</t>
-    <rPh sb="0" eb="2">
-      <t>テイアン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シュホウ</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>ユウコウセイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ケンショウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ジッケン</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ガクシュウ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ドウサ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>サイゲン</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>セイド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>研究背景</t>
-    <rPh sb="0" eb="2">
-      <t>ケンキュウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ハイケイ</t>
+      <t>ブンケン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>近年のロボット技術の発展に伴い，人間の生活環境で活動できる汎用ロボットの実現が期待されるようになりました．
 そのようなロボットには，人間が目の前で動作を見せるだけでその動作を学習し，再現できるような能力が備わっていることが望ましく，近年，その実現を目標としたさまざまな研究が行われています．
-教示された動作から学習しなければならない項目として，「何をしたか」の学習と，「どのようにしたか」の学習に大別できます．
-「どのようにしたか」の学習とは，ロボットが動作の最終目標を理解しているという前提で，その状態に至るための手段を教示動作から学習するというもので，ものを動かす動作の学習でいうと，動かす先の目標位置はロボットが理解している前提で，途中の軌跡の取り方や障害物の回避方法などを教示動作から学習するものになります．
-「何をしたか」の学習とは，この動かす先の目標位置を教示動作から学習するというものになります．
-具体的な例を挙げて説明しますと，飲食店で仕事をするロボットに「お冷を運ぶ」動作を見せて学習させるとき，「客の前にコップを移動する」ということを学習させるのが前者，「客の前に向かってどのような経路を進むか」ということを学習するのが後者ということになります．後者を解決する研究分野として，GPS（一般問題解決）や模倣学習といったものが挙げられますが，本研究では前者について焦点を当てて研究を行いました．</t>
+教示された動作から学習しなければならない項目として，「何をしたか」の学習と，「どうやってしたか」の学習の二つがあげられます．
+例えば，飲食店で働くロボットに「お冷を運ぶ」動作を学習させることを考えます．教示動作として，「お冷ください」といった客の前に水の入ったコップを持って行く動作を見せたとき，「客の前が最終位置なのか」「テーブルのあの位置が最終位置なのか」「客の前なのか客の左なのか」など，「最終的に達成すべき項目」を学習するのが「何をしたのか」の学習，「障害物であるテーブルの位置に対してこのような軌道で回避している」など，「項目の達成の仕方」を学習するのが「どうやってしたか」の学習ということになります．
+「どうやってしたか」の学習に関するアプローチとして，GPS（一般問題解決）や模倣学習といったものが挙げられます．</t>
     <rPh sb="0" eb="2">
       <t>キンネン</t>
     </rPh>
@@ -543,254 +283,1299 @@
     <rPh sb="195" eb="197">
       <t>ガクシュウ</t>
     </rPh>
-    <rPh sb="198" eb="200">
-      <t>タイベツ</t>
-    </rPh>
-    <rPh sb="217" eb="219">
+    <rPh sb="198" eb="199">
+      <t>フタ</t>
+    </rPh>
+    <rPh sb="209" eb="210">
+      <t>タト</t>
+    </rPh>
+    <rPh sb="213" eb="215">
+      <t>インショク</t>
+    </rPh>
+    <rPh sb="215" eb="216">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="217" eb="218">
+      <t>ハタラ</t>
+    </rPh>
+    <rPh sb="226" eb="227">
+      <t>ヒヤ</t>
+    </rPh>
+    <rPh sb="228" eb="229">
+      <t>ハコ</t>
+    </rPh>
+    <rPh sb="231" eb="233">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="234" eb="236">
       <t>ガクシュウ</t>
     </rPh>
-    <rPh sb="227" eb="229">
-      <t>ドウサ</t>
-    </rPh>
-    <rPh sb="230" eb="232">
+    <rPh sb="242" eb="243">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="247" eb="249">
+      <t>キョウジ</t>
+    </rPh>
+    <rPh sb="249" eb="251">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="257" eb="258">
+      <t>ヒヤ</t>
+    </rPh>
+    <rPh sb="267" eb="268">
+      <t>キャク</t>
+    </rPh>
+    <rPh sb="269" eb="270">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="271" eb="272">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="273" eb="274">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="280" eb="281">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="283" eb="284">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="285" eb="287">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="288" eb="289">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="295" eb="296">
+      <t>キャク</t>
+    </rPh>
+    <rPh sb="297" eb="298">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="299" eb="301">
       <t>サイシュウ</t>
-    </rPh>
-    <rPh sb="232" eb="234">
-      <t>モクヒョウ</t>
-    </rPh>
-    <rPh sb="235" eb="237">
-      <t>リカイ</t>
-    </rPh>
-    <rPh sb="244" eb="246">
-      <t>ゼンテイ</t>
-    </rPh>
-    <rPh sb="250" eb="252">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="253" eb="254">
-      <t>イタ</t>
-    </rPh>
-    <rPh sb="258" eb="260">
-      <t>シュダン</t>
-    </rPh>
-    <rPh sb="261" eb="263">
-      <t>キョウジ</t>
-    </rPh>
-    <rPh sb="263" eb="265">
-      <t>ドウサ</t>
-    </rPh>
-    <rPh sb="267" eb="269">
-      <t>ガクシュウ</t>
-    </rPh>
-    <rPh sb="281" eb="282">
-      <t>ウゴ</t>
-    </rPh>
-    <rPh sb="284" eb="286">
-      <t>ドウサ</t>
-    </rPh>
-    <rPh sb="287" eb="289">
-      <t>ガクシュウ</t>
-    </rPh>
-    <rPh sb="294" eb="295">
-      <t>ウゴ</t>
-    </rPh>
-    <rPh sb="297" eb="298">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="299" eb="301">
-      <t>モクヒョウ</t>
     </rPh>
     <rPh sb="301" eb="303">
       <t>イチ</t>
     </rPh>
-    <rPh sb="309" eb="311">
-      <t>リカイ</t>
-    </rPh>
     <rPh sb="315" eb="317">
-      <t>ゼンテイ</t>
-    </rPh>
-    <rPh sb="319" eb="321">
-      <t>トチュウ</t>
-    </rPh>
-    <rPh sb="322" eb="324">
-      <t>キセキ</t>
-    </rPh>
-    <rPh sb="325" eb="326">
-      <t>ト</t>
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="318" eb="320">
+      <t>サイシュウ</t>
+    </rPh>
+    <rPh sb="320" eb="322">
+      <t>イチ</t>
     </rPh>
     <rPh sb="327" eb="328">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="329" eb="332">
+      <t>キャク</t>
+    </rPh>
+    <rPh sb="329" eb="330">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="333" eb="334">
+      <t>キャク</t>
+    </rPh>
+    <rPh sb="335" eb="336">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="344" eb="347">
+      <t>サイシュウテキ</t>
+    </rPh>
+    <rPh sb="348" eb="350">
+      <t>タッセイ</t>
+    </rPh>
+    <rPh sb="353" eb="355">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="357" eb="359">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="364" eb="365">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="372" eb="374">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="376" eb="379">
       <t>ショウガイブツ</t>
     </rPh>
-    <rPh sb="333" eb="335">
+    <rPh sb="387" eb="389">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="390" eb="391">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="398" eb="400">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="401" eb="403">
       <t>カイヒ</t>
     </rPh>
-    <rPh sb="335" eb="337">
-      <t>ホウホウ</t>
-    </rPh>
-    <rPh sb="340" eb="342">
-      <t>キョウジ</t>
-    </rPh>
-    <rPh sb="342" eb="344">
-      <t>ドウサ</t>
-    </rPh>
-    <rPh sb="346" eb="348">
+    <rPh sb="412" eb="414">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="415" eb="417">
+      <t>タッセイ</t>
+    </rPh>
+    <rPh sb="418" eb="420">
+      <t>シカタ</t>
+    </rPh>
+    <rPh sb="422" eb="424">
       <t>ガクシュウ</t>
     </rPh>
-    <rPh sb="360" eb="361">
-      <t>ナニ</t>
-    </rPh>
-    <rPh sb="367" eb="369">
+    <rPh sb="439" eb="441">
       <t>ガクシュウ</t>
     </rPh>
-    <rPh sb="374" eb="375">
-      <t>ウゴ</t>
-    </rPh>
-    <rPh sb="377" eb="378">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="379" eb="381">
-      <t>モクヒョウ</t>
-    </rPh>
-    <rPh sb="381" eb="383">
-      <t>イチ</t>
-    </rPh>
-    <rPh sb="384" eb="386">
-      <t>キョウジ</t>
-    </rPh>
-    <rPh sb="386" eb="388">
-      <t>ドウサ</t>
-    </rPh>
-    <rPh sb="390" eb="392">
+    <rPh sb="464" eb="466">
       <t>ガクシュウ</t>
     </rPh>
-    <rPh sb="406" eb="409">
-      <t>グタイテキ</t>
-    </rPh>
-    <rPh sb="410" eb="411">
-      <t>レイ</t>
-    </rPh>
-    <rPh sb="412" eb="413">
+    <rPh sb="467" eb="468">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="483" eb="485">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="485" eb="487">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="487" eb="489">
+      <t>カイケツ</t>
+    </rPh>
+    <rPh sb="491" eb="493">
+      <t>モホウ</t>
+    </rPh>
+    <rPh sb="493" eb="495">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="502" eb="503">
       <t>ア</t>
-    </rPh>
-    <rPh sb="415" eb="417">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="422" eb="424">
-      <t>インショク</t>
-    </rPh>
-    <rPh sb="424" eb="425">
-      <t>テン</t>
-    </rPh>
-    <rPh sb="426" eb="428">
-      <t>シゴト</t>
-    </rPh>
-    <rPh sb="438" eb="439">
-      <t>ヒヤ</t>
-    </rPh>
-    <rPh sb="440" eb="441">
-      <t>ハコ</t>
-    </rPh>
-    <rPh sb="443" eb="445">
-      <t>ドウサ</t>
-    </rPh>
-    <rPh sb="446" eb="447">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="449" eb="451">
-      <t>ガクシュウ</t>
-    </rPh>
-    <rPh sb="458" eb="459">
-      <t>キャク</t>
-    </rPh>
-    <rPh sb="460" eb="461">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="466" eb="468">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="477" eb="479">
-      <t>ガクシュウ</t>
-    </rPh>
-    <rPh sb="484" eb="486">
-      <t>ゼンシャ</t>
-    </rPh>
-    <rPh sb="488" eb="489">
-      <t>キャク</t>
-    </rPh>
-    <rPh sb="490" eb="491">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="492" eb="493">
-      <t>ム</t>
-    </rPh>
-    <rPh sb="501" eb="503">
-      <t>ケイロ</t>
-    </rPh>
-    <rPh sb="504" eb="505">
-      <t>スス</t>
-    </rPh>
-    <rPh sb="514" eb="516">
-      <t>ガクシュウ</t>
-    </rPh>
-    <rPh sb="520" eb="522">
-      <t>コウシャ</t>
-    </rPh>
-    <rPh sb="533" eb="535">
-      <t>コウシャ</t>
-    </rPh>
-    <rPh sb="536" eb="538">
-      <t>カイケツ</t>
-    </rPh>
-    <rPh sb="540" eb="542">
-      <t>ケンキュウ</t>
-    </rPh>
-    <rPh sb="542" eb="544">
-      <t>ブンヤ</t>
-    </rPh>
-    <rPh sb="552" eb="554">
-      <t>イッパン</t>
-    </rPh>
-    <rPh sb="554" eb="556">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="556" eb="558">
-      <t>カイケツ</t>
-    </rPh>
-    <rPh sb="560" eb="562">
-      <t>モホウ</t>
-    </rPh>
-    <rPh sb="562" eb="564">
-      <t>ガクシュウ</t>
-    </rPh>
-    <rPh sb="571" eb="572">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="579" eb="582">
-      <t>ホンケンキュウ</t>
-    </rPh>
-    <rPh sb="584" eb="586">
-      <t>ゼンシャ</t>
-    </rPh>
-    <rPh sb="590" eb="592">
-      <t>ショウテン</t>
-    </rPh>
-    <rPh sb="593" eb="594">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="596" eb="598">
-      <t>ケンキュウ</t>
-    </rPh>
-    <rPh sb="599" eb="600">
-      <t>オコナ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">それでは，「一つ以上の参照点を考慮した物体移動動作の学習と再現に関する研究」というタイトルで，わたくし情報工学科4年の菰田が発表いたします．
+    <t xml:space="preserve">が，本研究では「何をしたか」の学習について，すなわち，教示された動作の目標位置がどのように決定するのかを学習し，再現する手法に焦点を当てて研究を行いました．
 </t>
+    <rPh sb="8" eb="9">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ガクシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（このページ消そう）</t>
+    <rPh sb="6" eb="7">
+      <t>ケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目標位置の決定法の学習に関する関連研究では，目標位置を基準となる参照点と，参照点を原点とした座標位置の対として学習する手法が提案されています．
+例えば先ほどの例では，「お冷を運ぶ」という動作に対して，「客」が参照点，「近く」が変位であり，この二つを組み合わせた「客の近く」というのが目標位置であると学習します．</t>
+    <rPh sb="0" eb="2">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケッテイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ケンキュウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>キジュン</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>サンショウテン</t>
+    </rPh>
+    <rPh sb="37" eb="40">
+      <t>サンショウテン</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ゲンテン</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ツイ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>シュホウ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>テイアン</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>タト</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>ヒヤ</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>ハコ</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="96" eb="97">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="101" eb="102">
+      <t>キャク</t>
+    </rPh>
+    <rPh sb="104" eb="107">
+      <t>サンショウテン</t>
+    </rPh>
+    <rPh sb="109" eb="110">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="113" eb="115">
+      <t>ヘンイ</t>
+    </rPh>
+    <rPh sb="121" eb="122">
+      <t>フタ</t>
+    </rPh>
+    <rPh sb="124" eb="125">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="126" eb="127">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="131" eb="132">
+      <t>キャク</t>
+    </rPh>
+    <rPh sb="133" eb="134">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="141" eb="143">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="143" eb="145">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="149" eb="151">
+      <t>ガクシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（このページ必要かな？）
+もう少し詳しく説明します．例えば丸を四角に近づけるという動作を学習することを考えます．
+（教示動作のアニメーション開始）
+教示動作をこのように見せたとき，四角の位置を参照点とした場合の座標系がこちらになります．
+（座標系出す）
+このように見ても丸の最終的な座標位置はバラバラになりますが，
+（座標系回転1）
+このように軸の一つを丸の初期位置に向くように回転させます．つまり「丸の初期位置を（１，０）とした座標系」にしたものを考えます．残り二つも同様に変換すると
+（座標系回転2，3）
+このようになり，どれも丸の最終位置が近い座標位置になっていることが分かります．
+（文字）
+よってこの動作は参照点を四角，座標系を初期一方向にすることで表せるとわかります．
+関連手法では参照点を物体位置と画面上の位置，座標系を画面に平行な座標系と初期一方向の座標系を候補とし，教示動作を表すのに最もあてはめのいい組み合わせを探索することで学習，再現を行っています．</t>
+    <rPh sb="6" eb="8">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>タト</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>マル</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>シカク</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>キョウジ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>キョウジ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>シカク</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="96" eb="99">
+      <t>サンショウテン</t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="107" eb="108">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="120" eb="122">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="122" eb="123">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="123" eb="124">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="132" eb="133">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="135" eb="136">
+      <t>マル</t>
+    </rPh>
+    <rPh sb="137" eb="140">
+      <t>サイシュウテキ</t>
+    </rPh>
+    <rPh sb="141" eb="143">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="143" eb="145">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="159" eb="161">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="161" eb="162">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="162" eb="164">
+      <t>カイテン</t>
+    </rPh>
+    <rPh sb="172" eb="173">
+      <t>ジク</t>
+    </rPh>
+    <rPh sb="174" eb="175">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="177" eb="178">
+      <t>マル</t>
+    </rPh>
+    <rPh sb="179" eb="181">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="181" eb="183">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="184" eb="185">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="189" eb="191">
+      <t>カイテン</t>
+    </rPh>
+    <rPh sb="200" eb="201">
+      <t>マル</t>
+    </rPh>
+    <rPh sb="202" eb="204">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="204" eb="206">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="215" eb="217">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="217" eb="218">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="225" eb="226">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="230" eb="231">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="232" eb="233">
+      <t>フタ</t>
+    </rPh>
+    <rPh sb="235" eb="237">
+      <t>ドウヨウ</t>
+    </rPh>
+    <rPh sb="238" eb="240">
+      <t>ヘンカン</t>
+    </rPh>
+    <rPh sb="245" eb="247">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="247" eb="248">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="248" eb="250">
+      <t>カイテン</t>
+    </rPh>
+    <rPh sb="266" eb="267">
+      <t>マル</t>
+    </rPh>
+    <rPh sb="268" eb="270">
+      <t>サイシュウ</t>
+    </rPh>
+    <rPh sb="270" eb="272">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="273" eb="274">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="275" eb="277">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="277" eb="279">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="288" eb="289">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="296" eb="298">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="305" eb="307">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="308" eb="311">
+      <t>サンショウテン</t>
+    </rPh>
+    <rPh sb="312" eb="314">
+      <t>シカク</t>
+    </rPh>
+    <rPh sb="315" eb="317">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="317" eb="318">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="319" eb="321">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="321" eb="324">
+      <t>イチホウコウ</t>
+    </rPh>
+    <rPh sb="330" eb="331">
+      <t>アラワ</t>
+    </rPh>
+    <rPh sb="342" eb="344">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="344" eb="346">
+      <t>シュホウ</t>
+    </rPh>
+    <rPh sb="348" eb="351">
+      <t>サンショウテン</t>
+    </rPh>
+    <rPh sb="352" eb="354">
+      <t>ブッタイ</t>
+    </rPh>
+    <rPh sb="354" eb="356">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="357" eb="360">
+      <t>ガメンジョウ</t>
+    </rPh>
+    <rPh sb="361" eb="363">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="364" eb="366">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="366" eb="367">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="368" eb="370">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="371" eb="373">
+      <t>ヘイコウ</t>
+    </rPh>
+    <rPh sb="374" eb="376">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="376" eb="377">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="378" eb="380">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="380" eb="383">
+      <t>イチホウコウ</t>
+    </rPh>
+    <rPh sb="384" eb="386">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="386" eb="387">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="388" eb="390">
+      <t>コウホ</t>
+    </rPh>
+    <rPh sb="393" eb="395">
+      <t>キョウジ</t>
+    </rPh>
+    <rPh sb="395" eb="397">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="398" eb="399">
+      <t>アラワ</t>
+    </rPh>
+    <rPh sb="402" eb="403">
+      <t>モット</t>
+    </rPh>
+    <rPh sb="411" eb="412">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="413" eb="414">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="417" eb="419">
+      <t>タンサク</t>
+    </rPh>
+    <rPh sb="424" eb="426">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="427" eb="429">
+      <t>サイゲン</t>
+    </rPh>
+    <rPh sb="430" eb="431">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>提案手法では参照点の候補に，新たに二つ以上の物体間の重心位置を採用することで，二つ以上の物体間の相対位置を考慮した動作の学習を行えるように改良しました．またそれに対応させるため，座標系の種類も追加しました．</t>
+    <rPh sb="0" eb="2">
+      <t>テイアン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュホウ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>サンショウテン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>コウホ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>アラ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>フタ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ブッタイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ジュウシン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>サイヨウ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>フタ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ブッタイ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ソウタイ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>コウリョ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>カイリョウ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>提案手法を具体的に説明します．
+（教示動作のアニメーション開始）
+例えば等間隔に丸四角三角と並べる動作をこのように教示したとき，参照点を四角と三角の重心位置に設定した座標系がこちらになります．
+（座標系バーン）
+そして三角の位置の方向に軸を調節すると
+（回転1）
+このようになります．ほかの二つも同様に設定すると
+（回転2，3）
+このようになり，丸の目標位置を近い座標で認識できます．</t>
+    <rPh sb="0" eb="2">
+      <t>テイアン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュホウ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>グタイテキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>キョウジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>タト</t>
+    </rPh>
+    <rPh sb="36" eb="39">
+      <t>トウカンカク</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>マル</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>シカク</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>サンカク</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>キョウジ</t>
+    </rPh>
+    <rPh sb="64" eb="67">
+      <t>サンショウテン</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>シカク</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>サンカク</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>ジュウシン</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="100" eb="101">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>サンカク</t>
+    </rPh>
+    <rPh sb="112" eb="114">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="115" eb="117">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="118" eb="119">
+      <t>ジク</t>
+    </rPh>
+    <rPh sb="120" eb="122">
+      <t>チョウセツ</t>
+    </rPh>
+    <rPh sb="127" eb="129">
+      <t>カイテン</t>
+    </rPh>
+    <rPh sb="145" eb="146">
+      <t>フタ</t>
+    </rPh>
+    <rPh sb="148" eb="150">
+      <t>ドウヨウ</t>
+    </rPh>
+    <rPh sb="151" eb="153">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="158" eb="160">
+      <t>カイテン</t>
+    </rPh>
+    <rPh sb="173" eb="174">
+      <t>マル</t>
+    </rPh>
+    <rPh sb="175" eb="177">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="177" eb="179">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="180" eb="181">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="182" eb="184">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="185" eb="187">
+      <t>ニンシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以上で発表を終わります．ご清聴ありがとうございました．</t>
+    <rPh sb="0" eb="2">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハッピョウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>セイチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これらは識別に失敗した例になります．
+左は○○である動作を□□とご識別したものになります．このように識別に失敗した動作はどれも人間にとっても識別が難しいものとなっていました．</t>
+    <rPh sb="4" eb="6">
+      <t>シキベツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>シキベツ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>シキベツ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ニンゲン</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>シキベツ</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>ムズカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>提案手法を用いて動作の再現と識別の実験を行いました．実験環境はこのようになっています．</t>
+    <rPh sb="0" eb="2">
+      <t>テイアン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュホウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サイゲン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シキベツ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジッケン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ジッケン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カンキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>教示動作の再現実験を行いました．
+実験に使用したのはこの6動作です．特に５の等間隔に並べるものと，６の時計回りに並べるものは二つ以上の物体位置を考慮しなければ学習できないものになります．
+学習データに付随した誤差が再現成功率に与える影響を求めた結果がこちらになります</t>
+    <rPh sb="0" eb="2">
+      <t>キョウジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サイゲン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジッケン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジッケン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>トク</t>
+    </rPh>
+    <rPh sb="38" eb="41">
+      <t>トウカンカク</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="51" eb="54">
+      <t>トケイマワ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>フタ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ブッタイ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>コウリョ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>フズイ</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>ゴサ</t>
+    </rPh>
+    <rPh sb="107" eb="109">
+      <t>サイゲン</t>
+    </rPh>
+    <rPh sb="109" eb="112">
+      <t>セイコウリツ</t>
+    </rPh>
+    <rPh sb="113" eb="114">
+      <t>アタ</t>
+    </rPh>
+    <rPh sb="116" eb="118">
+      <t>エイキョウ</t>
+    </rPh>
+    <rPh sb="119" eb="120">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="122" eb="124">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>横軸が学習データの誤差，縦軸は動作再現の成功率を表します．この結果から，５，６を含むすべての動作において，十分に正確な教示動作を用いることで学習，再現が適切に行えていることが分かります．</t>
+    <rPh sb="0" eb="2">
+      <t>ヨコジク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ゴサ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>タテジク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>サイゲン</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>セイコウリツ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>アラワ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ジュウブン</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>セイカク</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>キョウジ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>サイゲン</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>テキセツ</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次に，事前に学習させた複数の動作のうち，次に見せる動作がどの動作であるかを識別する実験を行いました．
+識別対象は先ほどと同様の6動作に加え，学習していないランダムな動作でも行いました．例示動作の動作名，または未学習動作であると回答し，その正答率を求めました．その結果がこちらになります．</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジゼン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>シキベツ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ジッケン</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>シキベツ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ドウヨウ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>レイジ</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="97" eb="99">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="99" eb="100">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="104" eb="105">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="107" eb="109">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="113" eb="115">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="119" eb="121">
+      <t>セイトウ</t>
+    </rPh>
+    <rPh sb="121" eb="122">
+      <t>リツ</t>
+    </rPh>
+    <rPh sb="123" eb="124">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="131" eb="133">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各動作とその識別の正答率になります．
+この結果から，どの動作に関しても高い精度で識別ができていることが分かりました．また，未学習動作の識別も高い精度で行えていることから，既学習動作と未学習動作の判別も適切に行えていることが分かりました．</t>
+    <rPh sb="0" eb="3">
+      <t>カクドウサ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シキベツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セイトウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>リツ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>セイド</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>シキベツ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>シキベツ</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>セイド</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>スデ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="97" eb="99">
+      <t>ハンベツ</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>テキセツ</t>
+    </rPh>
+    <rPh sb="103" eb="104">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="111" eb="112">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">今後の課題はこのようになっています．
+</t>
+    <rPh sb="0" eb="2">
+      <t>コンゴ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カダイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1119,7 +1904,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1129,34 +1914,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="36.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="373.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="30.125" customWidth="1"/>
-    <col min="4" max="4" width="153.5" customWidth="1"/>
+    <col min="1" max="1" width="6.5" customWidth="1"/>
+    <col min="2" max="2" width="16.25" customWidth="1"/>
+    <col min="4" max="4" width="45.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:21" ht="373.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C1">
         <f>SUM(C3:C74)</f>
-        <v>400</v>
+        <v>470</v>
       </c>
       <c r="D1">
         <v>420</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:21" ht="373.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:21" ht="373.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1167,7 +1954,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -1187,15 +1974,18 @@
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
     </row>
-    <row r="4" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:21" ht="373.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>80</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -1215,14 +2005,19 @@
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
     </row>
-    <row r="5" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:21" ht="373.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -1241,11 +2036,16 @@
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
     </row>
-    <row r="6" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:21" ht="373.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -1264,11 +2064,19 @@
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
     </row>
-    <row r="7" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:21" ht="373.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>30</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -1287,11 +2095,19 @@
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
     </row>
-    <row r="8" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:21" ht="373.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>80</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -1310,11 +2126,19 @@
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
     </row>
-    <row r="9" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:21" ht="373.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>30</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -1333,11 +2157,19 @@
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
     </row>
-    <row r="10" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:21" ht="373.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>80</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -1356,11 +2188,19 @@
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
     </row>
-    <row r="11" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:21" ht="373.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -1379,11 +2219,19 @@
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
     </row>
-    <row r="12" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:21" ht="373.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>30</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -1402,18 +2250,18 @@
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
     </row>
-    <row r="13" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:21" ht="373.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C13">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -1433,11 +2281,19 @@
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
     </row>
-    <row r="14" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:21" ht="373.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="D14" s="2"/>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>30</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -1456,11 +2312,19 @@
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
     </row>
-    <row r="15" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:21" ht="373.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>30</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -1479,11 +2343,19 @@
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
     </row>
-    <row r="16" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:21" ht="373.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="D16" s="2"/>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>20</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -1502,11 +2374,19 @@
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
     </row>
-    <row r="17" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:21" ht="373.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="D17" s="2"/>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17">
+        <v>10</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -1525,18 +2405,15 @@
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
     </row>
-    <row r="18" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:21" ht="373.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -1556,11 +2433,8 @@
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
     </row>
-    <row r="19" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19">
-        <v>17</v>
-      </c>
-      <c r="D19" s="2"/>
+    <row r="19" spans="1:21" ht="373.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D19" s="1"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -1579,11 +2453,8 @@
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
     </row>
-    <row r="20" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20">
-        <v>18</v>
-      </c>
-      <c r="D20" s="2"/>
+    <row r="20" spans="1:21" ht="373.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D20" s="1"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -1602,11 +2473,8 @@
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
     </row>
-    <row r="21" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21">
-        <v>19</v>
-      </c>
-      <c r="D21" s="2"/>
+    <row r="21" spans="1:21" ht="373.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D21" s="1"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -1625,11 +2493,8 @@
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
     </row>
-    <row r="22" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22">
-        <v>20</v>
-      </c>
-      <c r="D22" s="2"/>
+    <row r="22" spans="1:21" ht="373.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D22" s="1"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -1648,19 +2513,8 @@
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
     </row>
-    <row r="23" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23">
-        <v>30</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>14</v>
-      </c>
+    <row r="23" spans="1:21" ht="373.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D23" s="1"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -1679,11 +2533,8 @@
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
     </row>
-    <row r="24" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24">
-        <v>22</v>
-      </c>
-      <c r="D24" s="2"/>
+    <row r="24" spans="1:21" ht="373.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D24" s="1"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -1702,11 +2553,8 @@
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
     </row>
-    <row r="25" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25">
-        <v>23</v>
-      </c>
-      <c r="D25" s="2"/>
+    <row r="25" spans="1:21" ht="373.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D25" s="1"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -1725,11 +2573,8 @@
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
     </row>
-    <row r="26" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26">
-        <v>24</v>
-      </c>
-      <c r="D26" s="2"/>
+    <row r="26" spans="1:21" ht="373.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D26" s="1"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -1748,11 +2593,8 @@
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
     </row>
-    <row r="27" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27">
-        <v>25</v>
-      </c>
-      <c r="D27" s="2"/>
+    <row r="27" spans="1:21" ht="373.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D27" s="1"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -1771,19 +2613,8 @@
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
     </row>
-    <row r="28" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28">
-        <v>30</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>15</v>
-      </c>
+    <row r="28" spans="1:21" ht="373.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D28" s="1"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -1802,11 +2633,8 @@
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
     </row>
-    <row r="29" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29">
-        <v>27</v>
-      </c>
-      <c r="D29" s="2"/>
+    <row r="29" spans="1:21" ht="373.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D29" s="1"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -1825,11 +2653,8 @@
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
     </row>
-    <row r="30" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30">
-        <v>28</v>
-      </c>
-      <c r="D30" s="2"/>
+    <row r="30" spans="1:21" ht="373.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D30" s="1"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -1848,11 +2673,8 @@
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
     </row>
-    <row r="31" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31">
-        <v>29</v>
-      </c>
-      <c r="D31" s="2"/>
+    <row r="31" spans="1:21" ht="373.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D31" s="1"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -1871,11 +2693,8 @@
       <c r="T31" s="2"/>
       <c r="U31" s="2"/>
     </row>
-    <row r="32" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32">
-        <v>30</v>
-      </c>
-      <c r="D32" s="2"/>
+    <row r="32" spans="1:21" ht="373.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D32" s="1"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -1894,19 +2713,8 @@
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
     </row>
-    <row r="33" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33">
-        <v>31</v>
-      </c>
-      <c r="B33" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33">
-        <v>60</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>16</v>
-      </c>
+    <row r="33" spans="4:21" ht="373.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D33" s="1"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -1925,11 +2733,8 @@
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
     </row>
-    <row r="34" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34">
-        <v>32</v>
-      </c>
-      <c r="D34" s="2"/>
+    <row r="34" spans="4:21" ht="373.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D34" s="1"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -1948,11 +2753,8 @@
       <c r="T34" s="2"/>
       <c r="U34" s="2"/>
     </row>
-    <row r="35" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35">
-        <v>33</v>
-      </c>
-      <c r="D35" s="2"/>
+    <row r="35" spans="4:21" ht="373.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D35" s="1"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
@@ -1971,11 +2773,8 @@
       <c r="T35" s="2"/>
       <c r="U35" s="2"/>
     </row>
-    <row r="36" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36">
-        <v>34</v>
-      </c>
-      <c r="D36" s="2"/>
+    <row r="36" spans="4:21" ht="373.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D36" s="1"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -1994,11 +2793,8 @@
       <c r="T36" s="2"/>
       <c r="U36" s="2"/>
     </row>
-    <row r="37" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37">
-        <v>35</v>
-      </c>
-      <c r="D37" s="2"/>
+    <row r="37" spans="4:21" ht="373.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D37" s="1"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -2017,17 +2813,8 @@
       <c r="T37" s="2"/>
       <c r="U37" s="2"/>
     </row>
-    <row r="38" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38">
-        <v>36</v>
-      </c>
-      <c r="B38" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38">
-        <v>60</v>
-      </c>
-      <c r="D38" s="2"/>
+    <row r="38" spans="4:21" ht="373.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D38" s="1"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
@@ -2046,11 +2833,8 @@
       <c r="T38" s="2"/>
       <c r="U38" s="2"/>
     </row>
-    <row r="39" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39">
-        <v>37</v>
-      </c>
-      <c r="D39" s="2"/>
+    <row r="39" spans="4:21" ht="373.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D39" s="1"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
@@ -2069,11 +2853,8 @@
       <c r="T39" s="2"/>
       <c r="U39" s="2"/>
     </row>
-    <row r="40" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40">
-        <v>38</v>
-      </c>
-      <c r="D40" s="2"/>
+    <row r="40" spans="4:21" ht="373.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D40" s="1"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
@@ -2092,11 +2873,8 @@
       <c r="T40" s="2"/>
       <c r="U40" s="2"/>
     </row>
-    <row r="41" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41">
-        <v>39</v>
-      </c>
-      <c r="D41" s="2"/>
+    <row r="41" spans="4:21" ht="373.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D41" s="1"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
@@ -2115,11 +2893,8 @@
       <c r="T41" s="2"/>
       <c r="U41" s="2"/>
     </row>
-    <row r="42" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42">
-        <v>40</v>
-      </c>
-      <c r="D42" s="2"/>
+    <row r="42" spans="4:21" ht="373.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D42" s="1"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
@@ -2138,17 +2913,8 @@
       <c r="T42" s="2"/>
       <c r="U42" s="2"/>
     </row>
-    <row r="43" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43">
-        <v>41</v>
-      </c>
-      <c r="B43" t="s">
-        <v>9</v>
-      </c>
-      <c r="C43">
-        <v>60</v>
-      </c>
-      <c r="D43" s="2"/>
+    <row r="43" spans="4:21" ht="373.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D43" s="1"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
@@ -2167,11 +2933,8 @@
       <c r="T43" s="2"/>
       <c r="U43" s="2"/>
     </row>
-    <row r="44" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44">
-        <v>42</v>
-      </c>
-      <c r="D44" s="2"/>
+    <row r="44" spans="4:21" ht="373.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D44" s="1"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -2190,11 +2953,8 @@
       <c r="T44" s="2"/>
       <c r="U44" s="2"/>
     </row>
-    <row r="45" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45">
-        <v>43</v>
-      </c>
-      <c r="D45" s="2"/>
+    <row r="45" spans="4:21" ht="373.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D45" s="1"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
@@ -2213,11 +2973,8 @@
       <c r="T45" s="2"/>
       <c r="U45" s="2"/>
     </row>
-    <row r="46" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46">
-        <v>44</v>
-      </c>
-      <c r="D46" s="2"/>
+    <row r="46" spans="4:21" ht="373.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D46" s="1"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
@@ -2236,11 +2993,8 @@
       <c r="T46" s="2"/>
       <c r="U46" s="2"/>
     </row>
-    <row r="47" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47">
-        <v>45</v>
-      </c>
-      <c r="D47" s="2"/>
+    <row r="47" spans="4:21" ht="373.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D47" s="1"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
@@ -2259,17 +3013,8 @@
       <c r="T47" s="2"/>
       <c r="U47" s="2"/>
     </row>
-    <row r="48" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48">
-        <v>46</v>
-      </c>
-      <c r="B48" t="s">
-        <v>10</v>
-      </c>
-      <c r="C48">
-        <v>30</v>
-      </c>
-      <c r="D48" s="2"/>
+    <row r="48" spans="4:21" ht="373.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D48" s="1"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
@@ -2288,8 +3033,8 @@
       <c r="T48" s="2"/>
       <c r="U48" s="2"/>
     </row>
-    <row r="49" spans="2:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D49" s="2"/>
+    <row r="49" spans="4:21" ht="373.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D49" s="1"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
@@ -2308,8 +3053,8 @@
       <c r="T49" s="2"/>
       <c r="U49" s="2"/>
     </row>
-    <row r="50" spans="2:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D50" s="2"/>
+    <row r="50" spans="4:21" ht="373.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D50" s="1"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
@@ -2328,8 +3073,8 @@
       <c r="T50" s="2"/>
       <c r="U50" s="2"/>
     </row>
-    <row r="51" spans="2:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D51" s="2"/>
+    <row r="51" spans="4:21" ht="373.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D51" s="1"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
@@ -2348,8 +3093,8 @@
       <c r="T51" s="2"/>
       <c r="U51" s="2"/>
     </row>
-    <row r="52" spans="2:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D52" s="2"/>
+    <row r="52" spans="4:21" ht="373.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D52" s="1"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
@@ -2368,14 +3113,8 @@
       <c r="T52" s="2"/>
       <c r="U52" s="2"/>
     </row>
-    <row r="53" spans="2:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B53" t="s">
-        <v>11</v>
-      </c>
-      <c r="C53">
-        <v>30</v>
-      </c>
-      <c r="D53" s="2"/>
+    <row r="53" spans="4:21" ht="373.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D53" s="1"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
@@ -2394,8 +3133,8 @@
       <c r="T53" s="2"/>
       <c r="U53" s="2"/>
     </row>
-    <row r="54" spans="2:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D54" s="2"/>
+    <row r="54" spans="4:21" ht="373.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D54" s="1"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
@@ -2414,8 +3153,8 @@
       <c r="T54" s="2"/>
       <c r="U54" s="2"/>
     </row>
-    <row r="55" spans="2:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D55" s="2"/>
+    <row r="55" spans="4:21" ht="373.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D55" s="1"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
@@ -2434,8 +3173,8 @@
       <c r="T55" s="2"/>
       <c r="U55" s="2"/>
     </row>
-    <row r="56" spans="2:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D56" s="2"/>
+    <row r="56" spans="4:21" ht="373.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D56" s="1"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
@@ -2454,7 +3193,7 @@
       <c r="T56" s="2"/>
       <c r="U56" s="2"/>
     </row>
-    <row r="57" spans="2:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="4:21" ht="373.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>

--- a/IntentionLearning/memo/presentation/卒論発表会.xlsx
+++ b/IntentionLearning/memo/presentation/卒論発表会.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\komota\git\GitforEclipseTest\IntentionLearning\memo\presentation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>スライド</t>
     <phoneticPr fontId="1"/>
@@ -460,135 +465,6 @@
       <t>ナニ</t>
     </rPh>
     <rPh sb="15" eb="17">
-      <t>ガクシュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>（このページ消そう）</t>
-    <rPh sb="6" eb="7">
-      <t>ケ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>目標位置の決定法の学習に関する関連研究では，目標位置を基準となる参照点と，参照点を原点とした座標位置の対として学習する手法が提案されています．
-例えば先ほどの例では，「お冷を運ぶ」という動作に対して，「客」が参照点，「近く」が変位であり，この二つを組み合わせた「客の近く」というのが目標位置であると学習します．</t>
-    <rPh sb="0" eb="2">
-      <t>モクヒョウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>イチ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ケッテイ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ホウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガクシュウ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>カンレン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ケンキュウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>モクヒョウ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>イチ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>キジュン</t>
-    </rPh>
-    <rPh sb="32" eb="35">
-      <t>サンショウテン</t>
-    </rPh>
-    <rPh sb="37" eb="40">
-      <t>サンショウテン</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ゲンテン</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>ザヒョウ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>イチ</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>ツイ</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>ガクシュウ</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>シュホウ</t>
-    </rPh>
-    <rPh sb="62" eb="64">
-      <t>テイアン</t>
-    </rPh>
-    <rPh sb="72" eb="73">
-      <t>タト</t>
-    </rPh>
-    <rPh sb="75" eb="76">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="79" eb="80">
-      <t>レイ</t>
-    </rPh>
-    <rPh sb="85" eb="86">
-      <t>ヒヤ</t>
-    </rPh>
-    <rPh sb="87" eb="88">
-      <t>ハコ</t>
-    </rPh>
-    <rPh sb="93" eb="95">
-      <t>ドウサ</t>
-    </rPh>
-    <rPh sb="96" eb="97">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="101" eb="102">
-      <t>キャク</t>
-    </rPh>
-    <rPh sb="104" eb="107">
-      <t>サンショウテン</t>
-    </rPh>
-    <rPh sb="109" eb="110">
-      <t>チカ</t>
-    </rPh>
-    <rPh sb="113" eb="115">
-      <t>ヘンイ</t>
-    </rPh>
-    <rPh sb="121" eb="122">
-      <t>フタ</t>
-    </rPh>
-    <rPh sb="124" eb="125">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="126" eb="127">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="131" eb="132">
-      <t>キャク</t>
-    </rPh>
-    <rPh sb="133" eb="134">
-      <t>チカ</t>
-    </rPh>
-    <rPh sb="141" eb="143">
-      <t>モクヒョウ</t>
-    </rPh>
-    <rPh sb="143" eb="145">
-      <t>イチ</t>
-    </rPh>
-    <rPh sb="149" eb="151">
       <t>ガクシュウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -1218,96 +1094,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>教示動作の再現実験を行いました．
-実験に使用したのはこの6動作です．特に５の等間隔に並べるものと，６の時計回りに並べるものは二つ以上の物体位置を考慮しなければ学習できないものになります．
-学習データに付随した誤差が再現成功率に与える影響を求めた結果がこちらになります</t>
-    <rPh sb="0" eb="2">
-      <t>キョウジ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ドウサ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>サイゲン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ジッケン</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ジッケン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ドウサ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>トク</t>
-    </rPh>
-    <rPh sb="38" eb="41">
-      <t>トウカンカク</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>ナラ</t>
-    </rPh>
-    <rPh sb="51" eb="54">
-      <t>トケイマワ</t>
-    </rPh>
-    <rPh sb="56" eb="57">
-      <t>ナラ</t>
-    </rPh>
-    <rPh sb="62" eb="63">
-      <t>フタ</t>
-    </rPh>
-    <rPh sb="64" eb="66">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>ブッタイ</t>
-    </rPh>
-    <rPh sb="69" eb="71">
-      <t>イチ</t>
-    </rPh>
-    <rPh sb="72" eb="74">
-      <t>コウリョ</t>
-    </rPh>
-    <rPh sb="79" eb="81">
-      <t>ガクシュウ</t>
-    </rPh>
-    <rPh sb="94" eb="96">
-      <t>ガクシュウ</t>
-    </rPh>
-    <rPh sb="100" eb="102">
-      <t>フズイ</t>
-    </rPh>
-    <rPh sb="104" eb="106">
-      <t>ゴサ</t>
-    </rPh>
-    <rPh sb="107" eb="109">
-      <t>サイゲン</t>
-    </rPh>
-    <rPh sb="109" eb="112">
-      <t>セイコウリツ</t>
-    </rPh>
-    <rPh sb="113" eb="114">
-      <t>アタ</t>
-    </rPh>
-    <rPh sb="116" eb="118">
-      <t>エイキョウ</t>
-    </rPh>
-    <rPh sb="119" eb="120">
-      <t>モト</t>
-    </rPh>
-    <rPh sb="122" eb="124">
-      <t>ケッカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>横軸が学習データの誤差，縦軸は動作再現の成功率を表します．この結果から，５，６を含むすべての動作において，十分に正確な教示動作を用いることで学習，再現が適切に行えていることが分かります．</t>
     <rPh sb="0" eb="2">
       <t>ヨコジク</t>
@@ -1575,6 +1361,215 @@
     </rPh>
     <rPh sb="3" eb="5">
       <t>カダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目標位置の決定法の学習に関する関連研究では，目標位置を基準となる参照点と，参照点を原点とした変位の対として学習する手法が提案されています．
+例えば先ほどの例では，「お冷を運ぶ」という動作に対して，「客」が参照点，「近く」が変位であり，この二つを組み合わせた「客の近く」というのが目標位置であると学習します．</t>
+    <rPh sb="0" eb="2">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケッテイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ケンキュウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>キジュン</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>サンショウテン</t>
+    </rPh>
+    <rPh sb="37" eb="40">
+      <t>サンショウテン</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ゲンテン</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ヘンイ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ツイ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>シュホウ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>テイアン</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>タト</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>ヒヤ</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>ハコ</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="94" eb="95">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="99" eb="100">
+      <t>キャク</t>
+    </rPh>
+    <rPh sb="102" eb="105">
+      <t>サンショウテン</t>
+    </rPh>
+    <rPh sb="107" eb="108">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>ヘンイ</t>
+    </rPh>
+    <rPh sb="119" eb="120">
+      <t>フタ</t>
+    </rPh>
+    <rPh sb="122" eb="123">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="124" eb="125">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="129" eb="130">
+      <t>キャク</t>
+    </rPh>
+    <rPh sb="131" eb="132">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="139" eb="141">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="141" eb="143">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="147" eb="149">
+      <t>ガクシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まず，学習させた動作を再現させる実験を行いました．
+実験に使用したのはこの6動作です．特に５の等間隔に並べるものと，６の時計回りに並べるものは二つ以上の物体位置を考慮しなければ学習できないものになります．
+学習データに付随した誤差が再現成功率に与える影響を求めた結果がこちらになります</t>
+    <rPh sb="3" eb="5">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サイゲン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジッケン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ジッケン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>トク</t>
+    </rPh>
+    <rPh sb="47" eb="50">
+      <t>トウカンカク</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="60" eb="63">
+      <t>トケイマワ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>フタ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>ブッタイ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>コウリョ</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="103" eb="105">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>フズイ</t>
+    </rPh>
+    <rPh sb="113" eb="115">
+      <t>ゴサ</t>
+    </rPh>
+    <rPh sb="116" eb="118">
+      <t>サイゲン</t>
+    </rPh>
+    <rPh sb="118" eb="121">
+      <t>セイコウリツ</t>
+    </rPh>
+    <rPh sb="122" eb="123">
+      <t>アタ</t>
+    </rPh>
+    <rPh sb="125" eb="127">
+      <t>エイキョウ</t>
+    </rPh>
+    <rPh sb="128" eb="129">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="131" eb="133">
+      <t>ケッカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1904,7 +1899,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1912,10 +1907,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U57"/>
+  <dimension ref="A1:U56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="373.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1927,7 +1922,7 @@
   <sheetData>
     <row r="1" spans="1:21" ht="373.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C1">
-        <f>SUM(C3:C74)</f>
+        <f>SUM(C3:C73)</f>
         <v>470</v>
       </c>
       <c r="D1">
@@ -2043,8 +2038,11 @@
       <c r="B6" t="s">
         <v>5</v>
       </c>
+      <c r="C6">
+        <v>30</v>
+      </c>
       <c r="D6" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -2064,18 +2062,18 @@
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
     </row>
-    <row r="7" spans="1:21" ht="373.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:21" ht="349.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>5</v>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -2099,14 +2097,14 @@
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>6</v>
+      <c r="B8" t="s">
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -2130,14 +2128,14 @@
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>7</v>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="C9">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -2161,14 +2159,14 @@
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>8</v>
+      <c r="B10" t="s">
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -2193,13 +2191,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -2224,13 +2222,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C12">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -2255,13 +2253,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C13">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -2286,13 +2284,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C14">
         <v>30</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -2320,10 +2318,10 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -2348,13 +2346,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -2379,13 +2377,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -2406,15 +2401,7 @@
       <c r="U17" s="2"/>
     </row>
     <row r="18" spans="1:21" ht="373.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="D18" s="1"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -3174,7 +3161,7 @@
       <c r="U55" s="2"/>
     </row>
     <row r="56" spans="4:21" ht="373.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D56" s="1"/>
+      <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
@@ -3193,26 +3180,6 @@
       <c r="T56" s="2"/>
       <c r="U56" s="2"/>
     </row>
-    <row r="57" spans="4:21" ht="373.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
-      <c r="J57" s="2"/>
-      <c r="K57" s="2"/>
-      <c r="L57" s="2"/>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
-      <c r="P57" s="2"/>
-      <c r="Q57" s="2"/>
-      <c r="R57" s="2"/>
-      <c r="S57" s="2"/>
-      <c r="T57" s="2"/>
-      <c r="U57" s="2"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
